--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.28734300000001</v>
+        <v>102.3975143333333</v>
       </c>
       <c r="H2">
-        <v>255.862029</v>
+        <v>307.192543</v>
       </c>
       <c r="I2">
-        <v>0.7886846474407839</v>
+        <v>0.822753865655704</v>
       </c>
       <c r="J2">
-        <v>0.7886846474407838</v>
+        <v>0.8227538656557041</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>85.28734300000001</v>
+        <v>102.3975143333333</v>
       </c>
       <c r="N2">
-        <v>255.862029</v>
+        <v>307.192543</v>
       </c>
       <c r="O2">
-        <v>0.7886846474407839</v>
+        <v>0.822753865655704</v>
       </c>
       <c r="P2">
-        <v>0.7886846474407838</v>
+        <v>0.8227538656557041</v>
       </c>
       <c r="Q2">
-        <v>7273.93087599965</v>
+        <v>10485.2509416452</v>
       </c>
       <c r="R2">
-        <v>65465.37788399684</v>
+        <v>94367.25847480685</v>
       </c>
       <c r="S2">
-        <v>0.6220234731087937</v>
+        <v>0.6769239234514042</v>
       </c>
       <c r="T2">
-        <v>0.6220234731087935</v>
+        <v>0.6769239234514044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.28734300000001</v>
+        <v>102.3975143333333</v>
       </c>
       <c r="H3">
-        <v>255.862029</v>
+        <v>307.192543</v>
       </c>
       <c r="I3">
-        <v>0.7886846474407839</v>
+        <v>0.822753865655704</v>
       </c>
       <c r="J3">
-        <v>0.7886846474407838</v>
+        <v>0.8227538656557041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>57.352385</v>
       </c>
       <c r="O3">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="P3">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="Q3">
-        <v>1630.477510454352</v>
+        <v>1957.580555029451</v>
       </c>
       <c r="R3">
-        <v>14674.29759408916</v>
+        <v>17618.22499526505</v>
       </c>
       <c r="S3">
-        <v>0.1394287767051698</v>
+        <v>0.1263806767389385</v>
       </c>
       <c r="T3">
-        <v>0.1394287767051698</v>
+        <v>0.1263806767389385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.28734300000001</v>
+        <v>102.3975143333333</v>
       </c>
       <c r="H4">
-        <v>255.862029</v>
+        <v>307.192543</v>
       </c>
       <c r="I4">
-        <v>0.7886846474407839</v>
+        <v>0.822753865655704</v>
       </c>
       <c r="J4">
-        <v>0.7886846474407838</v>
+        <v>0.8227538656557041</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.15982</v>
+        <v>2.600356333333333</v>
       </c>
       <c r="N4">
-        <v>9.479460000000001</v>
+        <v>7.801069</v>
       </c>
       <c r="O4">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="P4">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="Q4">
-        <v>269.4926521582601</v>
+        <v>266.2700249142741</v>
       </c>
       <c r="R4">
-        <v>2425.433869424341</v>
+        <v>2396.430224228467</v>
       </c>
       <c r="S4">
-        <v>0.02304541496618822</v>
+        <v>0.0171902943444663</v>
       </c>
       <c r="T4">
-        <v>0.02304541496618822</v>
+        <v>0.01719029434446631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>85.28734300000001</v>
+        <v>102.3975143333333</v>
       </c>
       <c r="H5">
-        <v>255.862029</v>
+        <v>307.192543</v>
       </c>
       <c r="I5">
-        <v>0.7886846474407839</v>
+        <v>0.822753865655704</v>
       </c>
       <c r="J5">
-        <v>0.7886846474407838</v>
+        <v>0.8227538656557041</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5740886666666667</v>
+        <v>0.341712</v>
       </c>
       <c r="N5">
-        <v>1.722266</v>
+        <v>1.025136</v>
       </c>
       <c r="O5">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223115</v>
       </c>
       <c r="P5">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223116</v>
       </c>
       <c r="Q5">
-        <v>48.96249702641267</v>
+        <v>34.990459417872</v>
       </c>
       <c r="R5">
-        <v>440.662473237714</v>
+        <v>314.914134760848</v>
       </c>
       <c r="S5">
-        <v>0.004186982660632264</v>
+        <v>0.002258971120894945</v>
       </c>
       <c r="T5">
-        <v>0.004186982660632264</v>
+        <v>0.002258971120894946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>57.352385</v>
       </c>
       <c r="I6">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="J6">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>85.28734300000001</v>
+        <v>102.3975143333333</v>
       </c>
       <c r="N6">
-        <v>255.862029</v>
+        <v>307.192543</v>
       </c>
       <c r="O6">
-        <v>0.7886846474407839</v>
+        <v>0.822753865655704</v>
       </c>
       <c r="P6">
-        <v>0.7886846474407838</v>
+        <v>0.8227538656557041</v>
       </c>
       <c r="Q6">
-        <v>1630.477510454352</v>
+        <v>1957.580555029451</v>
       </c>
       <c r="R6">
-        <v>14674.29759408916</v>
+        <v>17618.22499526505</v>
       </c>
       <c r="S6">
-        <v>0.1394287767051698</v>
+        <v>0.1263806767389385</v>
       </c>
       <c r="T6">
-        <v>0.1394287767051698</v>
+        <v>0.1263806767389385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>57.352385</v>
       </c>
       <c r="I7">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="J7">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>57.352385</v>
       </c>
       <c r="O7">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="P7">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="Q7">
         <v>365.4773405764695</v>
@@ -880,10 +880,10 @@
         <v>3289.296065188225</v>
       </c>
       <c r="S7">
-        <v>0.03125345684518874</v>
+        <v>0.02359508195774188</v>
       </c>
       <c r="T7">
-        <v>0.03125345684518872</v>
+        <v>0.02359508195774188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>57.352385</v>
       </c>
       <c r="I8">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="J8">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.15982</v>
+        <v>2.600356333333333</v>
       </c>
       <c r="N8">
-        <v>9.479460000000001</v>
+        <v>7.801069</v>
       </c>
       <c r="O8">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="P8">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="Q8">
-        <v>60.40773772356668</v>
+        <v>49.71221252217389</v>
       </c>
       <c r="R8">
-        <v>543.6696395121</v>
+        <v>447.409912699565</v>
       </c>
       <c r="S8">
-        <v>0.005165711836145835</v>
+        <v>0.003209402057351224</v>
       </c>
       <c r="T8">
-        <v>0.005165711836145834</v>
+        <v>0.003209402057351224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>57.352385</v>
       </c>
       <c r="I9">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="J9">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5740886666666667</v>
+        <v>0.341712</v>
       </c>
       <c r="N9">
-        <v>1.722266</v>
+        <v>1.025136</v>
       </c>
       <c r="O9">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223115</v>
       </c>
       <c r="P9">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223116</v>
       </c>
       <c r="Q9">
-        <v>10.97511807826778</v>
+        <v>6.53266606104</v>
       </c>
       <c r="R9">
-        <v>98.77606270440999</v>
+        <v>58.79399454936</v>
       </c>
       <c r="S9">
-        <v>0.0009385270744527158</v>
+        <v>0.0004217465051859949</v>
       </c>
       <c r="T9">
-        <v>0.0009385270744527157</v>
+        <v>0.0004217465051859949</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.15982</v>
+        <v>2.600356333333333</v>
       </c>
       <c r="H10">
-        <v>9.479460000000001</v>
+        <v>7.801069</v>
       </c>
       <c r="I10">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="J10">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>85.28734300000001</v>
+        <v>102.3975143333333</v>
       </c>
       <c r="N10">
-        <v>255.862029</v>
+        <v>307.192543</v>
       </c>
       <c r="O10">
-        <v>0.7886846474407839</v>
+        <v>0.822753865655704</v>
       </c>
       <c r="P10">
-        <v>0.7886846474407838</v>
+        <v>0.8227538656557041</v>
       </c>
       <c r="Q10">
-        <v>269.4926521582601</v>
+        <v>266.2700249142741</v>
       </c>
       <c r="R10">
-        <v>2425.433869424341</v>
+        <v>2396.430224228467</v>
       </c>
       <c r="S10">
-        <v>0.02304541496618822</v>
+        <v>0.0171902943444663</v>
       </c>
       <c r="T10">
-        <v>0.02304541496618822</v>
+        <v>0.01719029434446631</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.15982</v>
+        <v>2.600356333333333</v>
       </c>
       <c r="H11">
-        <v>9.479460000000001</v>
+        <v>7.801069</v>
       </c>
       <c r="I11">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="J11">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,22 +1116,22 @@
         <v>57.352385</v>
       </c>
       <c r="O11">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="P11">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="Q11">
-        <v>60.40773772356668</v>
+        <v>49.71221252217389</v>
       </c>
       <c r="R11">
-        <v>543.6696395121</v>
+        <v>447.409912699565</v>
       </c>
       <c r="S11">
-        <v>0.005165711836145835</v>
+        <v>0.003209402057351224</v>
       </c>
       <c r="T11">
-        <v>0.005165711836145834</v>
+        <v>0.003209402057351224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.15982</v>
+        <v>2.600356333333333</v>
       </c>
       <c r="H12">
-        <v>9.479460000000001</v>
+        <v>7.801069</v>
       </c>
       <c r="I12">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="J12">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.15982</v>
+        <v>2.600356333333333</v>
       </c>
       <c r="N12">
-        <v>9.479460000000001</v>
+        <v>7.801069</v>
       </c>
       <c r="O12">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="P12">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="Q12">
-        <v>9.984462432400003</v>
+        <v>6.761853060306779</v>
       </c>
       <c r="R12">
-        <v>89.86016189160003</v>
+        <v>60.856677542761</v>
       </c>
       <c r="S12">
-        <v>0.0008538120728941088</v>
+        <v>0.0004365427331075918</v>
       </c>
       <c r="T12">
-        <v>0.0008538120728941088</v>
+        <v>0.0004365427331075919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.15982</v>
+        <v>2.600356333333333</v>
       </c>
       <c r="H13">
-        <v>9.479460000000001</v>
+        <v>7.801069</v>
       </c>
       <c r="I13">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="J13">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5740886666666667</v>
+        <v>0.341712</v>
       </c>
       <c r="N13">
-        <v>1.722266</v>
+        <v>1.025136</v>
       </c>
       <c r="O13">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223115</v>
       </c>
       <c r="P13">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223116</v>
       </c>
       <c r="Q13">
-        <v>1.814016850706667</v>
+        <v>0.8885729633760001</v>
       </c>
       <c r="R13">
-        <v>16.32615165636</v>
+        <v>7.997156670384</v>
       </c>
       <c r="S13">
-        <v>0.0001551239736794127</v>
+        <v>5.736594193013601E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001551239736794127</v>
+        <v>5.736594193013603E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5740886666666667</v>
+        <v>0.341712</v>
       </c>
       <c r="H14">
-        <v>1.722266</v>
+        <v>1.025136</v>
       </c>
       <c r="I14">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223115</v>
       </c>
       <c r="J14">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223116</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>85.28734300000001</v>
+        <v>102.3975143333333</v>
       </c>
       <c r="N14">
-        <v>255.862029</v>
+        <v>307.192543</v>
       </c>
       <c r="O14">
-        <v>0.7886846474407839</v>
+        <v>0.822753865655704</v>
       </c>
       <c r="P14">
-        <v>0.7886846474407838</v>
+        <v>0.8227538656557041</v>
       </c>
       <c r="Q14">
-        <v>48.96249702641267</v>
+        <v>34.990459417872</v>
       </c>
       <c r="R14">
-        <v>440.662473237714</v>
+        <v>314.914134760848</v>
       </c>
       <c r="S14">
-        <v>0.004186982660632264</v>
+        <v>0.002258971120894945</v>
       </c>
       <c r="T14">
-        <v>0.004186982660632264</v>
+        <v>0.002258971120894946</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5740886666666667</v>
+        <v>0.341712</v>
       </c>
       <c r="H15">
-        <v>1.722266</v>
+        <v>1.025136</v>
       </c>
       <c r="I15">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223115</v>
       </c>
       <c r="J15">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223116</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,22 +1364,22 @@
         <v>57.352385</v>
       </c>
       <c r="O15">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="P15">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="Q15">
-        <v>10.97511807826778</v>
+        <v>6.53266606104</v>
       </c>
       <c r="R15">
-        <v>98.77606270440999</v>
+        <v>58.79399454936</v>
       </c>
       <c r="S15">
-        <v>0.0009385270744527158</v>
+        <v>0.0004217465051859949</v>
       </c>
       <c r="T15">
-        <v>0.0009385270744527157</v>
+        <v>0.0004217465051859949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5740886666666667</v>
+        <v>0.341712</v>
       </c>
       <c r="H16">
-        <v>1.722266</v>
+        <v>1.025136</v>
       </c>
       <c r="I16">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223115</v>
       </c>
       <c r="J16">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223116</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.15982</v>
+        <v>2.600356333333333</v>
       </c>
       <c r="N16">
-        <v>9.479460000000001</v>
+        <v>7.801069</v>
       </c>
       <c r="O16">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="P16">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="Q16">
-        <v>1.814016850706667</v>
+        <v>0.8885729633760001</v>
       </c>
       <c r="R16">
-        <v>16.32615165636</v>
+        <v>7.997156670384</v>
       </c>
       <c r="S16">
-        <v>0.0001551239736794127</v>
+        <v>5.736594193013601E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001551239736794127</v>
+        <v>5.736594193013603E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5740886666666667</v>
+        <v>0.341712</v>
       </c>
       <c r="H17">
-        <v>1.722266</v>
+        <v>1.025136</v>
       </c>
       <c r="I17">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223115</v>
       </c>
       <c r="J17">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223116</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5740886666666667</v>
+        <v>0.341712</v>
       </c>
       <c r="N17">
-        <v>1.722266</v>
+        <v>1.025136</v>
       </c>
       <c r="O17">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223115</v>
       </c>
       <c r="P17">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223116</v>
       </c>
       <c r="Q17">
-        <v>0.3295777971951112</v>
+        <v>0.116767090944</v>
       </c>
       <c r="R17">
-        <v>2.966200174756</v>
+        <v>1.050903818496</v>
       </c>
       <c r="S17">
-        <v>2.818354058701101E-05</v>
+        <v>7.538440212039133E-06</v>
       </c>
       <c r="T17">
-        <v>2.818354058701101E-05</v>
+        <v>7.538440212039136E-06</v>
       </c>
     </row>
   </sheetData>
